--- a/Project4/andrewsAlgo/competition results.xlsx
+++ b/Project4/andrewsAlgo/competition results.xlsx
@@ -77,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,12 +85,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,7 +390,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,90 +401,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>4949</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>6974</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>11455</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1.95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>15137</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>14.26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>28685</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.40500000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>40933</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>1.53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>63780</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>9.3000000000000007</v>
       </c>
     </row>

--- a/Project4/andrewsAlgo/competition results.xlsx
+++ b/Project4/andrewsAlgo/competition results.xlsx
@@ -35,25 +35,25 @@
     <t>Time (s)</t>
   </si>
   <si>
-    <t>test-input-1</t>
-  </si>
-  <si>
-    <t>test-input-2</t>
-  </si>
-  <si>
-    <t>test-input-3</t>
-  </si>
-  <si>
-    <t>test-input-4</t>
-  </si>
-  <si>
-    <t>test-input-5</t>
-  </si>
-  <si>
-    <t>test-input-6</t>
-  </si>
-  <si>
-    <t>test-input-7</t>
+    <t>test-input-1.txt.tour</t>
+  </si>
+  <si>
+    <t>test-input-7.txt.tour</t>
+  </si>
+  <si>
+    <t>test-input-6.txt.tour</t>
+  </si>
+  <si>
+    <t>test-input-5.txt.tour</t>
+  </si>
+  <si>
+    <t>test-input-4.txt.tour</t>
+  </si>
+  <si>
+    <t>test-input-3.txt.tour</t>
+  </si>
+  <si>
+    <t>test-input-2.txt.tour</t>
   </si>
 </sst>
 </file>
@@ -390,12 +390,12 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
@@ -419,34 +419,34 @@
         <v>4949</v>
       </c>
       <c r="C2" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>2.1899999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>6974</v>
       </c>
       <c r="C3" s="1">
-        <v>0.13</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>11455</v>
       </c>
       <c r="C4" s="1">
-        <v>1.95</v>
+        <v>1.9018999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>15137</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>28685</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>40933</v>
@@ -479,13 +479,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>63780</v>
       </c>
       <c r="C8" s="1">
-        <v>9.3000000000000007</v>
+        <v>9.1940000000000008</v>
       </c>
     </row>
   </sheetData>
